--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danna\OneDrive\Escritorio\Proyecto-WebCrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21031041-CC8C-46B1-BA26-A47EF437FE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76102141-5546-414F-9C3B-0E5EC200CE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="3228" windowWidth="14280" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,49 +34,49 @@
     <t>Puntuación</t>
   </si>
   <si>
-    <t>Rudloff</t>
-  </si>
-  <si>
-    <t>alltube</t>
-  </si>
-  <si>
-    <t>https://github.com/Rudloff/alltube</t>
-  </si>
-  <si>
-    <t>alaouy</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>https://github.com/alaouy/Youtube</t>
-  </si>
-  <si>
-    <t>Athlon1600</t>
-  </si>
-  <si>
-    <t>youtube-downloader</t>
-  </si>
-  <si>
-    <t>https://github.com/Athlon1600/youtube-downloader</t>
-  </si>
-  <si>
-    <t>MarceauKa</t>
-  </si>
-  <si>
-    <t>shaark</t>
-  </si>
-  <si>
-    <t>https://github.com/MarceauKa/shaark</t>
-  </si>
-  <si>
-    <t>sonata-project</t>
-  </si>
-  <si>
-    <t>SonataMediaBundle</t>
-  </si>
-  <si>
-    <t>https://github.com/sonata-project/SonataMediaBundle</t>
+    <t>dnlcrl</t>
+  </si>
+  <si>
+    <t>PyGraphArt</t>
+  </si>
+  <si>
+    <t>https://github.com/dnlcrl/PyGraphArt</t>
+  </si>
+  <si>
+    <t>Rambatino</t>
+  </si>
+  <si>
+    <t>Kruskals</t>
+  </si>
+  <si>
+    <t>https://github.com/Rambatino/Kruskals</t>
+  </si>
+  <si>
+    <t>pinasu</t>
+  </si>
+  <si>
+    <t>Python-Kruskal</t>
+  </si>
+  <si>
+    <t>https://github.com/pinasu/Python-Kruskal</t>
+  </si>
+  <si>
+    <t>wOvOpy</t>
+  </si>
+  <si>
+    <t>GraphAlgorithm</t>
+  </si>
+  <si>
+    <t>https://github.com/wOvOpy/GraphAlgorithm</t>
+  </si>
+  <si>
+    <t>engri-1101</t>
+  </si>
+  <si>
+    <t>vinal</t>
+  </si>
+  <si>
+    <t>https://github.com/engri-1101/vinal</t>
   </si>
 </sst>
 </file>
@@ -435,14 +435,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="53" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,11 +467,11 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>2832</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,11 +481,11 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>713</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>689</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>522</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -527,12 +527,12 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>440</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E56E7C50-A230-4DC0-ADA4-DC8EF3C77A1D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6245382D-2024-4C23-ABBE-7A20ED03D0C7}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
